--- a/RelationalModel.xlsx
+++ b/RelationalModel.xlsx
@@ -152,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +166,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -184,16 +192,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -202,13 +234,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -230,30 +264,36 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Egyenes összekötő 4"/>
+        <xdr:cNvPr id="27" name="Szögletes összekötő 26"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="790574"/>
-          <a:ext cx="142875" cy="962026"/>
+          <a:off x="8998324" y="806824"/>
+          <a:ext cx="414618" cy="392206"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1352"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -274,30 +314,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Egyenes összekötő 6"/>
+        <xdr:cNvPr id="30" name="Szögletes összekötő 29"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="847725" y="790575"/>
-          <a:ext cx="2895600" cy="990600"/>
+          <a:off x="2723029" y="907676"/>
+          <a:ext cx="6779560" cy="1075766"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 83"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -318,30 +364,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>757518</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>522195</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Egyenes összekötő 9"/>
+        <xdr:cNvPr id="45" name="Szögletes összekötő 44"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809625" y="781050"/>
-          <a:ext cx="6457950" cy="990600"/>
+          <a:off x="2718547" y="1485899"/>
+          <a:ext cx="6779560" cy="1075766"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 83"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -362,30 +414,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Egyenes összekötő 12"/>
+        <xdr:cNvPr id="46" name="Szögletes összekötő 45"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7877175" y="590550"/>
-          <a:ext cx="1371601" cy="38100"/>
+        <a:xfrm>
+          <a:off x="2723029" y="2117912"/>
+          <a:ext cx="7272619" cy="1075766"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 83"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -406,30 +464,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Egyenes összekötő 15"/>
+        <xdr:cNvPr id="48" name="Egyenes összekötő nyíllal 47"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="714375" y="3314700"/>
-          <a:ext cx="2914650" cy="409575"/>
+        <a:xfrm>
+          <a:off x="2218765" y="874059"/>
+          <a:ext cx="11206" cy="2711823"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -450,30 +512,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1030941</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Egyenes összekötő 17"/>
+        <xdr:cNvPr id="57" name="Egyenes összekötő nyíllal 56"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="952500" y="3933825"/>
-          <a:ext cx="4019550" cy="990601"/>
+        <a:xfrm>
+          <a:off x="3810000" y="3720353"/>
+          <a:ext cx="974912" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -494,30 +560,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>838201</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Egyenes összekötő 19"/>
+        <xdr:cNvPr id="59" name="Egyenes összekötő nyíllal 58"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="838201" y="3848100"/>
-          <a:ext cx="5105399" cy="485775"/>
+        <a:xfrm>
+          <a:off x="9827559" y="3877235"/>
+          <a:ext cx="0" cy="291353"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -538,30 +608,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358590</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526678</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Egyenes összekötő 22"/>
+        <xdr:cNvPr id="61" name="Szögletes összekötő 60"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="723900" y="781050"/>
-          <a:ext cx="1428750" cy="2343151"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8802222" y="4398309"/>
+          <a:ext cx="1232647" cy="168088"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -870,267 +946,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="M7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="N7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="M17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="N17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="F19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="H20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="I20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="J20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="K20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="L20" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="M24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="N24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="O24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="P24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="M27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="N27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="O27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="P27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="Q27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="R27" s="3" t="s">
         <v>36</v>
       </c>
     </row>

--- a/RelationalModel.xlsx
+++ b/RelationalModel.xlsx
@@ -949,7 +949,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,6 +964,8 @@
     <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">

--- a/RelationalModel.xlsx
+++ b/RelationalModel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>Relational Model</t>
   </si>
@@ -46,21 +46,9 @@
     <t>Clothing</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
     <t>Equipment</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>GunReplicas</t>
   </si>
   <si>
@@ -146,6 +134,33 @@
   </si>
   <si>
     <t>iId</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>deliveryFee</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>ProductSupplierID</t>
+  </si>
+  <si>
+    <t>zipCodeId</t>
   </si>
 </sst>
 </file>
@@ -264,16 +279,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1023937</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:colOff>500066</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -282,17 +297,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8998324" y="806824"/>
-          <a:ext cx="414618" cy="392206"/>
+          <a:off x="8310562" y="1238250"/>
+          <a:ext cx="2393160" cy="166687"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 1352"/>
+            <a:gd name="adj1" fmla="val 249"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="none"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -315,9 +330,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -332,12 +347,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2723029" y="907676"/>
-          <a:ext cx="6779560" cy="1075766"/>
+          <a:off x="2464594" y="690562"/>
+          <a:ext cx="8265739" cy="1292880"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 83"/>
+            <a:gd name="adj1" fmla="val -271"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -365,9 +380,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>757518</xdr:colOff>
+      <xdr:colOff>404812</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -382,12 +397,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2718547" y="1485899"/>
-          <a:ext cx="6779560" cy="1075766"/>
+          <a:off x="2440781" y="1500187"/>
+          <a:ext cx="8285070" cy="1061478"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 83"/>
+            <a:gd name="adj1" fmla="val -10"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -415,9 +430,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>440531</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -432,12 +447,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2723029" y="2117912"/>
-          <a:ext cx="7272619" cy="1075766"/>
+          <a:off x="2476500" y="2095500"/>
+          <a:ext cx="8253833" cy="1098178"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 83"/>
+            <a:gd name="adj1" fmla="val -488"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -465,9 +480,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -482,15 +497,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2218765" y="874059"/>
-          <a:ext cx="11206" cy="2711823"/>
+          <a:off x="2286000" y="654844"/>
+          <a:ext cx="18911" cy="2931038"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -537,8 +552,8 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="none"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -585,8 +600,8 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="none"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -632,6 +647,106 @@
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>250034</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>130970</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Szögletes összekötő 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="12346784" y="5643564"/>
+          <a:ext cx="1988341" cy="1083471"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>702468</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>973934</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Szögletes összekötő 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2738437" y="690562"/>
+          <a:ext cx="3164685" cy="366713"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -946,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,13 +1074,16 @@
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -973,116 +1091,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L6" s="3" t="s">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L10" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L11" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L14" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1094,24 +1222,24 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L17" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1122,37 +1250,43 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="F20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="J20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>43</v>
+      <c r="M20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1160,7 +1294,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L23" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1169,24 +1303,24 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L24" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L26" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1197,25 +1331,41 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L27" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N39" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
